--- a/biology/Médecine/René_Barthe/René_Barthe.xlsx
+++ b/biology/Médecine/René_Barthe/René_Barthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Barthe</t>
+          <t>René_Barthe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Barthe, né le 22 novembre 1893 à Paris et mort le 28 avril 1957 dans cette même ville, est un médecin et entomologiste français. Il fut l'un des pionniers de la médecine du travail en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Barthe</t>
+          <t>René_Barthe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">René Barthe, né à Paris le 22 novembre 1893, est fils de médecin. Il est poussé par son père à embrasser la carrière médicale alors que lui-même souhaitait devenir ingénieur des Eaux et Forêts.	
 Il commence ses études de médecine à Toulouse, puis intègre la Faculté de Médecine de Paris. En 1913, il sort major de l’Externat des Hôpitaux de Paris. Il exerce alors à l’Hôpital Maison Dubois, dans le service du Professeur Langlois. Ce dernier, particulièrement sensible aux pathologies professionnelles, représenta la France au premier congrès des maladies du travail en 1906. Son expérience aura une grande influence sur la carrière de René Barthe.
